--- a/DataSource/excel/job.xlsx
+++ b/DataSource/excel/job.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="8120" yWindow="1000" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
+    <workbookView xWindow="11400" yWindow="1100" windowWidth="25120" windowHeight="14400" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="condition.csv" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -41,56 +41,68 @@
     <t>string</t>
   </si>
   <si>
-    <t>parameter</t>
-  </si>
-  <si>
-    <t>conditionId</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>compareType</t>
-  </si>
-  <si>
-    <t>noSignUp</t>
-  </si>
-  <si>
-    <t>没有签约</t>
-  </si>
-  <si>
-    <t>currCityPercent</t>
-  </si>
-  <si>
-    <t>=</t>
-  </si>
-  <si>
-    <t>haveRecommendLetter</t>
-  </si>
-  <si>
-    <t>有推荐信</t>
-  </si>
-  <si>
-    <t>haveItem</t>
-  </si>
-  <si>
     <t>;</t>
   </si>
   <si>
-    <t>canSpreadRumor</t>
-  </si>
-  <si>
-    <t>可以传播谣言</t>
-  </si>
-  <si>
-    <t>hasJob</t>
+    <t>jobId</t>
+  </si>
+  <si>
+    <t>conditions</t>
+  </si>
+  <si>
+    <t>船长</t>
+  </si>
+  <si>
+    <t>瞭望</t>
+  </si>
+  <si>
+    <t>操帆</t>
+  </si>
+  <si>
+    <t>甲板</t>
+  </si>
+  <si>
+    <t>测量</t>
+  </si>
+  <si>
+    <t>操舵</t>
+  </si>
+  <si>
+    <t>大副</t>
+  </si>
+  <si>
+    <t>炮手</t>
+  </si>
+  <si>
+    <t>木匠</t>
+  </si>
+  <si>
+    <t>医生</t>
+  </si>
+  <si>
+    <t>大厨</t>
+  </si>
+  <si>
+    <t>饲养员</t>
+  </si>
+  <si>
+    <t>谋士</t>
+  </si>
+  <si>
+    <t>会计</t>
+  </si>
+  <si>
+    <t>舰长</t>
+  </si>
+  <si>
+    <t>空闲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,13 +125,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,10 +153,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -494,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -505,10 +508,9 @@
     <col min="1" max="1" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -518,14 +520,8 @@
       <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -535,62 +531,181 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13">
         <v>11</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
